--- a/Wine_Quality/outputs/train_40_test_60/depth_5/wq_train_40_test_60_depth_5_report.xlsx
+++ b/Wine_Quality/outputs/train_40_test_60/depth_5/wq_train_40_test_60_depth_5_report.xlsx
@@ -458,58 +458,58 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>High quality</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.5634920634920635</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0472972972972973</v>
+        <v>0.2780678851174935</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08139534883720931</v>
+        <v>0.3723776223776224</v>
       </c>
       <c r="E2" t="n">
-        <v>148</v>
+        <v>766</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Low quality</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8109540636042403</v>
+        <v>0.125</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9226130653266331</v>
+        <v>0.02027027027027027</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8631875881523272</v>
+        <v>0.03488372093023256</v>
       </c>
       <c r="E3" t="n">
-        <v>2985</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Standard quality</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5511482254697286</v>
+        <v>0.8012582213325707</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3446475195822454</v>
+        <v>0.9386934673366835</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4240963855421687</v>
+        <v>0.8645479790188213</v>
       </c>
       <c r="E4" t="n">
-        <v>766</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7758399589638368</v>
+        <v>0.7740446268273916</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7758399589638368</v>
+        <v>0.7740446268273916</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7758399589638368</v>
+        <v>0.7740446268273916</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7758399589638368</v>
+        <v>0.7740446268273916</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5512563185802118</v>
+        <v>0.4965834282748781</v>
       </c>
       <c r="C6" t="n">
-        <v>0.438185960735392</v>
+        <v>0.4123438742414824</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4562264408439017</v>
+        <v>0.4239364407755588</v>
       </c>
       <c r="E6" t="n">
         <v>3899</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7402010995730023</v>
+        <v>0.7288768174692599</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7758399589638368</v>
+        <v>0.7740446268273916</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7472478311330867</v>
+        <v>0.7363631102359874</v>
       </c>
       <c r="E7" t="n">
         <v>3899</v>

--- a/Wine_Quality/outputs/train_40_test_60/depth_5/wq_train_40_test_60_depth_5_report.xlsx
+++ b/Wine_Quality/outputs/train_40_test_60/depth_5/wq_train_40_test_60_depth_5_report.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5634920634920635</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2780678851174935</v>
+        <v>0.28</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3723776223776224</v>
+        <v>0.37</v>
       </c>
       <c r="E2" t="n">
         <v>766</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02027027027027027</v>
+        <v>0.02</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03488372093023256</v>
+        <v>0.03</v>
       </c>
       <c r="E3" t="n">
         <v>148</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8012582213325707</v>
+        <v>0.8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9386934673366835</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8645479790188213</v>
+        <v>0.86</v>
       </c>
       <c r="E4" t="n">
         <v>2985</v>
@@ -518,17 +518,13 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.7740446268273916</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7740446268273916</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>0.7740446268273916</v>
+        <v>0.77</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7740446268273916</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +534,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4965834282748781</v>
+        <v>0.5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4123438742414824</v>
+        <v>0.41</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4239364407755588</v>
+        <v>0.42</v>
       </c>
       <c r="E6" t="n">
         <v>3899</v>
@@ -557,13 +553,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7288768174692599</v>
+        <v>0.73</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7740446268273916</v>
+        <v>0.77</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7363631102359874</v>
+        <v>0.74</v>
       </c>
       <c r="E7" t="n">
         <v>3899</v>
